--- a/财务与流水/馋唻买-听涛路店流水.xlsx
+++ b/财务与流水/馋唻买-听涛路店流水.xlsx
@@ -1,41 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Github\ChanWeiMai\财务与流水\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3161CFBF-FD65-438A-9E47-E94599119A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="3525" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28000" windowHeight="15800" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="开店成本清单" sheetId="1" r:id="rId1"/>
     <sheet name="流水-202602" sheetId="2" r:id="rId2"/>
     <sheet name="流水-202603" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
   <si>
     <t>总预算(元)</t>
   </si>
@@ -136,6 +117,45 @@
     <t>外卖首日刷单</t>
   </si>
   <si>
+    <t>推广</t>
+  </si>
+  <si>
+    <t>淘宝300+美团300，首充</t>
+  </si>
+  <si>
+    <t>包装盒补货</t>
+  </si>
+  <si>
+    <t>快驴充值</t>
+  </si>
+  <si>
+    <t>水电</t>
+  </si>
+  <si>
+    <t>一月电费</t>
+  </si>
+  <si>
+    <t>成本明细</t>
+  </si>
+  <si>
+    <t>一月份水电</t>
+  </si>
+  <si>
+    <t>人工</t>
+  </si>
+  <si>
+    <t>首批食材</t>
+  </si>
+  <si>
+    <t>房租每月</t>
+  </si>
+  <si>
+    <t>外卖推广首充</t>
+  </si>
+  <si>
+    <t>外卖刷单</t>
+  </si>
+  <si>
     <t>营业额</t>
   </si>
   <si>
@@ -151,90 +171,29 @@
     <t>美团</t>
   </si>
   <si>
+    <t>成本合计</t>
+  </si>
+  <si>
+    <t>营业额合计</t>
+  </si>
+  <si>
     <t>毛利润</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>净利润</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>成本明细</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>房租</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>水电</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>人工</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>食材</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>推广</t>
-  </si>
-  <si>
-    <t>推广</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>淘宝300+美团300，首充</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>包装盒补货</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>快驴充值</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>分类</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>快驴补货</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>外卖刷单</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>成本合计</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>营业额合计</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>外卖推广首充</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>房租每月</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>首批食材</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,12 +206,7 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -263,49 +217,379 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体-简"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -313,91 +597,379 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
       <font>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+        <family val="2"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
         <u val="none"/>
-        <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
       </font>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -405,44 +977,41 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="成本明细" displayName="成本明细" ref="A5:C29" totalsRowShown="0">
-  <autoFilter ref="A5:C29" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="成本明细" displayName="成本明细" ref="A5:C30" totalsRowShown="0">
+  <autoFilter ref="A5:C30"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="金额(元)"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="分类"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="说明"/>
+    <tableColumn id="1" name="金额(元)"/>
+    <tableColumn id="2" name="分类"/>
+    <tableColumn id="3" name="说明"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="营业额明细表" displayName="营业额明细表" ref="A12:C16" totalsRowShown="0">
-  <autoFilter ref="A12:C16" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="营业额明细表" displayName="营业额明细表" ref="A12:C16" totalsRowShown="0">
+  <autoFilter ref="A12:C16"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="营业额"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="分类"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="说明"/>
+    <tableColumn id="1" name="营业额"/>
+    <tableColumn id="2" name="分类"/>
+    <tableColumn id="3" name="说明"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{78656A48-3500-4511-816C-0DE74353ECDC}" name="成本明细表" displayName="成本明细表" ref="A2:C9" totalsRowShown="0">
-  <autoFilter ref="A2:C9" xr:uid="{78656A48-3500-4511-816C-0DE74353ECDC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="成本明细表" displayName="成本明细表" ref="A2:C9" totalsRowShown="0">
+  <autoFilter ref="A2:C9"/>
   <tableColumns count="3">
-    <tableColumn id="2" xr3:uid="{0C9212B7-8680-4D3B-8C91-0F224824E66C}" name="成本明细"/>
-    <tableColumn id="3" xr3:uid="{55C85BAB-8D94-40D0-8B9B-AFF7A661C290}" name="说明"/>
-    <tableColumn id="4" xr3:uid="{6116E0BB-FCA4-4E69-ABCD-83FA79E01C24}" name="分类" dataDxfId="0"/>
+    <tableColumn id="2" name="成本明细"/>
+    <tableColumn id="3" name="说明"/>
+    <tableColumn id="4" name="分类" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -727,333 +1296,343 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="$A21:$XFD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="19.75" style="8" customWidth="1"/>
+    <col min="1" max="1" width="23.7211538461538" style="18" customWidth="1"/>
     <col min="2" max="2" width="60" customWidth="1"/>
-    <col min="3" max="3" width="37.25" style="9" customWidth="1"/>
+    <col min="3" max="3" width="37.25" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" ht="20.25" customHeight="1" spans="1:3">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="14">
         <v>100000</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" ht="20.25" customHeight="1" spans="1:3">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="17">
         <f>SUM(成本明细[金额(元)])</f>
-        <v>91331.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+        <v>91494</v>
+      </c>
+    </row>
+    <row r="3" ht="20.25" customHeight="1" spans="1:3">
+      <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="17">
         <f>C1-C2</f>
-        <v>8668.3999999999942</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+        <v>8506</v>
+      </c>
+    </row>
+    <row r="4" ht="18.75" customHeight="1"/>
+    <row r="5" ht="20.25" customHeight="1" spans="1:3">
+      <c r="A5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+    <row r="6" ht="20.25" customHeight="1" spans="1:3">
+      <c r="A6" s="12">
         <v>10000</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+    <row r="7" ht="20.25" customHeight="1" spans="1:3">
+      <c r="A7" s="12">
         <v>26000</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+    <row r="8" ht="20.25" customHeight="1" spans="1:3">
+      <c r="A8" s="12">
         <v>6000</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+    <row r="9" ht="20.25" customHeight="1" spans="1:3">
+      <c r="A9" s="12">
         <v>3000</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+    <row r="10" ht="20.25" customHeight="1" spans="1:3">
+      <c r="A10" s="12">
         <v>2100</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+    <row r="11" ht="20.25" customHeight="1" spans="1:3">
+      <c r="A11" s="12">
         <v>340</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+    <row r="12" ht="20.25" customHeight="1" spans="1:3">
+      <c r="A12" s="12">
         <v>200</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+    <row r="13" ht="20.25" customHeight="1" spans="1:3">
+      <c r="A13" s="12">
         <v>11000</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+    <row r="14" ht="20.25" customHeight="1" spans="1:3">
+      <c r="A14" s="12">
         <v>5000</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+    <row r="15" ht="20.25" customHeight="1" spans="1:3">
+      <c r="A15" s="12">
         <v>755</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+    <row r="16" ht="20.25" customHeight="1" spans="1:3">
+      <c r="A16" s="12">
         <v>190</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+    <row r="17" ht="20.25" customHeight="1" spans="1:3">
+      <c r="A17" s="3">
         <v>405.9</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+    <row r="18" ht="20.25" customHeight="1" spans="1:3">
+      <c r="A18" s="12">
         <v>228</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+    <row r="19" ht="20.25" customHeight="1" spans="1:3">
+      <c r="A19" s="3">
         <v>639.5</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>1259.0999999999999</v>
-      </c>
-      <c r="B20" s="10" t="s">
+    <row r="20" ht="20.25" customHeight="1" spans="1:3">
+      <c r="A20" s="3">
+        <v>1259.1</v>
+      </c>
+      <c r="B20" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="8">
+    <row r="21" ht="18.75" customHeight="1" spans="1:3">
+      <c r="A21" s="18">
         <v>1000</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+    <row r="22" ht="20.25" customHeight="1" spans="1:3">
+      <c r="A22" s="12">
         <v>13260</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>276.10000000000002</v>
-      </c>
-      <c r="B23" s="7" t="s">
+    <row r="23" ht="20.25" customHeight="1" spans="1:3">
+      <c r="A23" s="12">
+        <v>276.1</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="8">
+    <row r="24" spans="1:3">
+      <c r="A24" s="18">
         <v>6000</v>
       </c>
       <c r="B24" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" s="8">
+    <row r="25" spans="1:3">
+      <c r="A25" s="18">
         <v>640</v>
       </c>
       <c r="B25" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" s="8">
+    <row r="26" spans="1:3">
+      <c r="A26" s="18">
         <v>500</v>
       </c>
       <c r="B26" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" s="8">
+    <row r="27" spans="1:3">
+      <c r="A27" s="18">
         <v>600</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" s="8">
+      <c r="B27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="18">
         <v>938</v>
       </c>
-      <c r="B28" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" s="8">
+      <c r="B28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="18">
         <v>1000</v>
       </c>
-      <c r="B29" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>49</v>
+      <c r="B29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3">
+        <v>162.4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -1061,179 +1640,185 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="21.125" customWidth="1"/>
     <col min="2" max="2" width="19.75" customWidth="1"/>
     <col min="3" max="3" width="23.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="13"/>
-    </row>
-    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="5">
+        <v>2000</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="8">
+        <v>162.4</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C4" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="8">
+        <v>13260</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="8">
+        <v>4334</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="5">
+        <v>600</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5" customHeight="1" spans="1:3">
+      <c r="A9" s="8">
+        <v>500</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="18" t="s">
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="12"/>
+      <c r="B13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="12">
+        <v>0</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="12"/>
+      <c r="B15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="12"/>
+      <c r="B16" s="8" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="19">
-        <v>1000</v>
-      </c>
-      <c r="B3" s="20" t="s">
+      <c r="C16" s="3"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="13" t="s">
         <v>51</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="7">
-        <v>13260</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="7">
-        <v>4334</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="19">
-        <v>600</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>500</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="5"/>
-    </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>53</v>
       </c>
       <c r="B19">
         <f>SUM(成本明细表[成本明细])</f>
-        <v>19694</v>
-      </c>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="21">
+        <v>20856.4</v>
+      </c>
+      <c r="C19" s="14"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="16">
         <f>SUM(营业额明细表[营业额])</f>
         <v>0</v>
       </c>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="13" t="s">
-        <v>39</v>
+      <c r="C20" s="17"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="17"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
@@ -1242,17 +1827,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/财务与流水/馋唻买-听涛路店流水.xlsx
+++ b/财务与流水/馋唻买-听涛路店流水.xlsx
@@ -9,14 +9,13 @@
   <sheets>
     <sheet name="开店成本清单" sheetId="1" r:id="rId1"/>
     <sheet name="流水-202602" sheetId="2" r:id="rId2"/>
-    <sheet name="流水-202603" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="57">
   <si>
     <t>总预算(元)</t>
   </si>
@@ -141,6 +140,9 @@
     <t>一月份水电</t>
   </si>
   <si>
+    <t>两人工资(暂定)</t>
+  </si>
+  <si>
     <t>人工</t>
   </si>
   <si>
@@ -150,13 +152,16 @@
     <t>房租每月</t>
   </si>
   <si>
-    <t>外卖推广首充</t>
+    <t>包装盒、调味品</t>
+  </si>
+  <si>
+    <t>外卖推广</t>
   </si>
   <si>
     <t>外卖刷单</t>
   </si>
   <si>
-    <t>营业额</t>
+    <t>营业额明细</t>
   </si>
   <si>
     <t>堂食</t>
@@ -188,19 +193,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,28 +227,102 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体-简"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -259,7 +331,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,14 +339,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,108 +353,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -410,13 +390,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,37 +462,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,121 +564,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,8 +581,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,30 +598,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,8 +620,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -695,214 +666,208 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -997,7 +962,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="营业额明细表" displayName="营业额明细表" ref="A12:C16" totalsRowShown="0">
   <autoFilter ref="A12:C16"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="营业额"/>
+    <tableColumn id="1" name="营业额明细"/>
     <tableColumn id="2" name="分类"/>
     <tableColumn id="3" name="说明"/>
   </tableColumns>
@@ -1006,8 +971,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="成本明细表" displayName="成本明细表" ref="A2:C9" totalsRowShown="0">
-  <autoFilter ref="A2:C9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="成本明细表" displayName="成本明细表" ref="A1:C9" totalsRowShown="0">
+  <autoFilter ref="A1:C9"/>
   <tableColumns count="3">
     <tableColumn id="2" name="成本明细"/>
     <tableColumn id="3" name="说明"/>
@@ -1312,321 +1277,321 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="23.7211538461538" style="18" customWidth="1"/>
+    <col min="1" max="1" width="23.7211538461538" style="14" customWidth="1"/>
     <col min="2" max="2" width="60" customWidth="1"/>
-    <col min="3" max="3" width="37.25" style="19" customWidth="1"/>
+    <col min="3" max="3" width="37.25" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1" spans="1:3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14">
+      <c r="C1" s="9">
         <v>100000</v>
       </c>
     </row>
     <row r="2" ht="20.25" customHeight="1" spans="1:3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="12">
         <f>SUM(成本明细[金额(元)])</f>
         <v>91494</v>
       </c>
     </row>
     <row r="3" ht="20.25" customHeight="1" spans="1:3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="12">
         <f>C1-C2</f>
         <v>8506</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1"/>
     <row r="5" ht="20.25" customHeight="1" spans="1:3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" ht="20.25" customHeight="1" spans="1:3">
-      <c r="A6" s="12">
+      <c r="A6" s="8">
         <v>10000</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" ht="20.25" customHeight="1" spans="1:3">
-      <c r="A7" s="12">
+      <c r="A7" s="8">
         <v>26000</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" ht="20.25" customHeight="1" spans="1:3">
-      <c r="A8" s="12">
+      <c r="A8" s="8">
         <v>6000</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" ht="20.25" customHeight="1" spans="1:3">
-      <c r="A9" s="12">
+      <c r="A9" s="8">
         <v>3000</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" ht="20.25" customHeight="1" spans="1:3">
-      <c r="A10" s="12">
+      <c r="A10" s="8">
         <v>2100</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" ht="20.25" customHeight="1" spans="1:3">
-      <c r="A11" s="12">
+      <c r="A11" s="8">
         <v>340</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" ht="20.25" customHeight="1" spans="1:3">
-      <c r="A12" s="12">
+      <c r="A12" s="8">
         <v>200</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" ht="20.25" customHeight="1" spans="1:3">
-      <c r="A13" s="12">
+      <c r="A13" s="8">
         <v>11000</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" ht="20.25" customHeight="1" spans="1:3">
-      <c r="A14" s="12">
+      <c r="A14" s="8">
         <v>5000</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" ht="20.25" customHeight="1" spans="1:3">
-      <c r="A15" s="12">
+      <c r="A15" s="8">
         <v>755</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" ht="20.25" customHeight="1" spans="1:3">
-      <c r="A16" s="12">
+      <c r="A16" s="8">
         <v>190</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" ht="20.25" customHeight="1" spans="1:3">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>405.9</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" ht="20.25" customHeight="1" spans="1:3">
-      <c r="A18" s="12">
+      <c r="A18" s="8">
         <v>228</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" ht="20.25" customHeight="1" spans="1:3">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>639.5</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="20" ht="20.25" customHeight="1" spans="1:3">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>1259.1</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="21" ht="18.75" customHeight="1" spans="1:3">
-      <c r="A21" s="18">
+      <c r="A21" s="14">
         <v>1000</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="22" ht="20.25" customHeight="1" spans="1:3">
-      <c r="A22" s="12">
+      <c r="A22" s="8">
         <v>13260</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" ht="20.25" customHeight="1" spans="1:3">
-      <c r="A23" s="12">
+      <c r="A23" s="8">
         <v>276.1</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="18">
+      <c r="A24" s="14">
         <v>6000</v>
       </c>
       <c r="B24" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="18">
+      <c r="A25" s="14">
         <v>640</v>
       </c>
       <c r="B25" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="15" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="18">
+      <c r="A26" s="14">
         <v>500</v>
       </c>
       <c r="B26" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="15" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="18">
+      <c r="A27" s="14">
         <v>600</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="17" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="18">
+      <c r="A28" s="14">
         <v>938</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="17" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="18">
+      <c r="A29" s="14">
         <v>1000</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="17" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="3">
+      <c r="A30" s="2">
         <v>162.4</v>
       </c>
       <c r="B30" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="15" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1647,7 +1612,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -1657,163 +1622,181 @@
     <col min="3" max="3" width="23.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="4">
+        <v>2000</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="4">
+        <v>162.4</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="4">
+        <v>12000</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="4">
+        <v>13260</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="4">
+        <v>4334</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="4">
+        <v>2000</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="4">
+        <v>600</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5" customHeight="1" spans="1:3">
+      <c r="A9" s="4">
+        <v>500</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="5">
-        <v>2000</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="8">
-        <v>162.4</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="8">
-        <v>13260</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="8">
-        <v>4334</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="5">
-        <v>600</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" ht="16.5" customHeight="1" spans="1:3">
-      <c r="A9" s="8">
-        <v>500</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="3"/>
+      <c r="A13" s="8">
+        <v>2500</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="12">
+      <c r="A14" s="8">
         <v>0</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="3"/>
+      <c r="B14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="3"/>
+      <c r="A15" s="8">
+        <v>3000</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="3"/>
+      <c r="A16" s="8">
+        <v>1000</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="2"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="13" t="s">
-        <v>51</v>
+      <c r="A19" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="B19">
         <f>SUM(成本明细表[成本明细])</f>
-        <v>20856.4</v>
-      </c>
-      <c r="C19" s="14"/>
+        <v>34856.4</v>
+      </c>
+      <c r="C19" s="9"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="16">
-        <f>SUM(营业额明细表[营业额])</f>
-        <v>0</v>
-      </c>
-      <c r="C20" s="17"/>
+      <c r="A20" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="11">
+        <f>SUM(营业额明细表[营业额明细])</f>
+        <v>6500</v>
+      </c>
+      <c r="C20" s="12"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="17"/>
+      <c r="A21" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="12"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="1" t="s">
-        <v>54</v>
+      <c r="A22" s="13" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1824,22 +1807,4 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
 </file>